--- a/uploads/pan-241115.xlsx
+++ b/uploads/pan-241115.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\checc\PycharmProjects\redprinting_crolling\list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\checc\PycharmProjects\새 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9BDC67-571E-4051-87DD-141157E722DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FBFFF2-4138-4161-AFFE-3C062DC3B6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="76680" yWindow="-120" windowWidth="17310" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50400" yWindow="1665" windowWidth="14940" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="226">
   <si>
     <t xml:space="preserve">후가공이 없을 경우 x, </t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -708,6 +709,22 @@
   </si>
   <si>
     <t>https://www.redprinting.co.kr/ko/product/item/PH/PHSTPAN/detail/173822</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>272047,272048,272049,272050,272051,272052,272053,272054,272055,272056,272057,272058,272059,272060,272061,272062,272063,272064,272065,272066,272067,272068,272069,272070,272071,272966,272967,272968,272969,272970,272971,272972,272973,272974,272975,272976,272977,272978,272979,272980,283618,283619,283620,283621,283622,283623,283624,283625,283626,283627,283628,283629,283630,283631,283632,283633,283634,283635,283636,283637,283638,283639,283640,283641,283642,283643,283644,283645,283646,283647,283648,283649,283650,283651,283652,283653,283654,283655,283656,283657,374853,374855</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NBPIN,NBMGN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACNTHAP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고투명 PET 리무버블_75</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -820,13 +837,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1111,7 +1128,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1124,12 +1141,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
@@ -1145,18 +1162,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="3" customFormat="1">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D3" t="s">
-        <v>218</v>
+        <v>224</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1259,22 +1276,22 @@
       <c r="A8" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>216</v>
       </c>
     </row>
@@ -1510,6 +1527,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE92E2EF-4909-4115-93CA-E9FF1BC23AB0}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFE9ECA5-891E-454F-A0DC-49F4477F64C8}">
   <dimension ref="A2:D196"/>
   <sheetViews>
@@ -2508,7 +2555,7 @@
       </c>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="8" t="s">
+      <c r="A196" s="7" t="s">
         <v>221</v>
       </c>
     </row>
